--- a/img/img資料夾之編號對照表.xlsx
+++ b/img/img資料夾之編號對照表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>mt(山)</t>
   </si>
@@ -47,6 +47,9 @@
     <t>玉山</t>
   </si>
   <si>
+    <t>亞洲</t>
+  </si>
+  <si>
     <t>聖母峰</t>
   </si>
   <si>
@@ -56,22 +59,37 @@
     <t>阿斯帕林</t>
   </si>
   <si>
+    <t>大洋</t>
+  </si>
+  <si>
     <t>百內國家公園</t>
   </si>
   <si>
+    <t>南美</t>
+  </si>
+  <si>
     <t>吉力馬札羅</t>
   </si>
   <si>
+    <t>非洲</t>
+  </si>
+  <si>
     <t>馬丘比丘</t>
   </si>
   <si>
     <t>少女峰</t>
   </si>
   <si>
+    <t>歐洲</t>
+  </si>
+  <si>
     <t>瓦斯卡蘭</t>
   </si>
   <si>
     <t>優勝美地</t>
+  </si>
+  <si>
+    <t>北美</t>
   </si>
   <si>
     <t>ㄨㄚ</t>
@@ -206,12 +224,18 @@
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>2.0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -220,7 +244,10 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -228,7 +255,10 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -236,7 +266,10 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -244,7 +277,10 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -252,7 +288,10 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -260,7 +299,10 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -268,7 +310,10 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -276,10 +321,13 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
